--- a/Team-Data/2012-13/2-7-2012-13.xlsx
+++ b/Team-Data/2012-13/2-7-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.531</v>
+        <v>0.521</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31</v>
+      </c>
+      <c r="T3" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="W3" t="n">
         <v>8.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
@@ -914,19 +981,19 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
         <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -953,13 +1020,13 @@
         <v>28</v>
       </c>
       <c r="AM3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -968,19 +1035,19 @@
         <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -998,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="BB3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
@@ -1165,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1317,10 +1384,10 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,37 +1479,37 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P6" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
         <v>22.8</v>
@@ -1451,40 +1518,40 @@
         <v>14.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1499,10 +1566,10 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1517,10 +1584,10 @@
         <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1538,10 +1605,10 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.64</v>
+        <v>0.633</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.471</v>
+        <v>0.468</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
         <v>19.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O9" t="n">
         <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.6</v>
@@ -1991,37 +2058,37 @@
         <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W9" t="n">
         <v>8.6</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.7</v>
+        <v>104.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2039,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2266,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2640,7 @@
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2776,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>14</v>
@@ -2979,7 +3046,7 @@
         <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.46</v>
+        <v>0.469</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,28 +3117,28 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M15" t="n">
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
         <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.9</v>
@@ -3080,16 +3147,16 @@
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
         <v>5.4</v>
@@ -3101,16 +3168,16 @@
         <v>18.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3149,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3161,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3179,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>8</v>
@@ -3319,7 +3386,7 @@
         <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS17" t="n">
         <v>19</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3704,10 +3771,10 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -3886,13 +3953,13 @@
         <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
@@ -3907,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4074,7 +4141,7 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -4996,7 +5063,7 @@
         <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
@@ -5169,7 +5236,7 @@
         <v>21</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5318,7 +5385,7 @@
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
@@ -5366,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6076,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-7-2012-13</t>
+          <t>2013-02-07</t>
         </is>
       </c>
     </row>
